--- a/src/main/java/br/senac/tads/pi3a/livrariatades/scriptBD/consultarTarefas.xlsx
+++ b/src/main/java/br/senac/tads/pi3a/livrariatades/scriptBD/consultarTarefas.xlsx
@@ -213,7 +213,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,17 +224,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,19 +562,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -584,6 +586,12 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -592,6 +600,12 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -600,6 +614,12 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -608,6 +628,12 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -616,57 +642,138 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -677,203 +784,88 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="B19" s="4">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
-    <mergeCell ref="C19:L20"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C21:L21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/br/senac/tads/pi3a/livrariatades/scriptBD/consultarTarefas.xlsx
+++ b/src/main/java/br/senac/tads/pi3a/livrariatades/scriptBD/consultarTarefas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Brasília</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Acesso</t>
   </si>
   <si>
-    <t>Diretoria</t>
-  </si>
-  <si>
     <t>Gerente Regional</t>
   </si>
   <si>
@@ -116,6 +113,12 @@
   </si>
   <si>
     <t>Dao livro: remover valor e quantidade</t>
+  </si>
+  <si>
+    <t>Nível</t>
+  </si>
+  <si>
+    <t>Diretoria / Gerente global</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -217,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -232,6 +238,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +574,7 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +584,7 @@
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,11 +595,14 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -601,10 +613,13 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -615,10 +630,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -629,10 +647,13 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -643,11 +664,12 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -655,217 +677,218 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>8</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:L18"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="C12:L13"/>
     <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="C18:L18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
